--- a/Data/ROY Data/rookies_06_07.xlsx
+++ b/Data/ROY Data/rookies_06_07.xlsx
@@ -990,19 +990,19 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H2">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="I2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1011,52 +1011,52 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="V2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="W2">
-        <v>0.534</v>
+        <v>0.556</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.643</v>
+        <v>0.667</v>
       </c>
       <c r="Z2">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="AA2">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC2">
         <v>0.2</v>
@@ -1082,73 +1082,73 @@
         <v>22</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>214</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>21</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>82</v>
-      </c>
-      <c r="H3">
-        <v>505</v>
-      </c>
-      <c r="I3">
-        <v>64</v>
-      </c>
-      <c r="J3">
-        <v>189</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>44</v>
-      </c>
-      <c r="M3">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>53</v>
-      </c>
-      <c r="O3">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>46</v>
-      </c>
-      <c r="Q3">
-        <v>19</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
       <c r="S3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="U3">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="V3">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="W3">
-        <v>0.339</v>
+        <v>0.314</v>
       </c>
       <c r="X3">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="Y3">
-        <v>0.5659999999999999</v>
+        <v>0.606</v>
       </c>
       <c r="Z3">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AA3">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC3">
         <v>0.2</v>
@@ -1174,76 +1174,76 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1003</v>
+        <v>63</v>
       </c>
       <c r="H4">
-        <v>34518</v>
+        <v>1392</v>
       </c>
       <c r="I4">
-        <v>7919</v>
+        <v>241</v>
       </c>
       <c r="J4">
-        <v>16118</v>
+        <v>479</v>
       </c>
       <c r="K4">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>584</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>3579</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>4414</v>
+        <v>115</v>
       </c>
       <c r="O4">
-        <v>2684</v>
+        <v>144</v>
       </c>
       <c r="P4">
-        <v>8360</v>
+        <v>312</v>
       </c>
       <c r="Q4">
-        <v>1985</v>
+        <v>24</v>
       </c>
       <c r="R4">
-        <v>733</v>
+        <v>22</v>
       </c>
       <c r="S4">
-        <v>1111</v>
+        <v>73</v>
       </c>
       <c r="T4">
-        <v>1572</v>
+        <v>43</v>
       </c>
       <c r="U4">
-        <v>2473</v>
+        <v>186</v>
       </c>
       <c r="V4">
-        <v>19599</v>
+        <v>565</v>
       </c>
       <c r="W4">
-        <v>0.491</v>
+        <v>0.503</v>
       </c>
       <c r="X4">
-        <v>0.312</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.8110000000000001</v>
+        <v>0.722</v>
       </c>
       <c r="Z4">
-        <v>34.4</v>
+        <v>22.1</v>
       </c>
       <c r="AA4">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="AB4">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" t="s">
         <v>168</v>
@@ -1266,76 +1266,73 @@
         <v>24</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>89</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>428</v>
-      </c>
-      <c r="H5">
-        <v>5507</v>
-      </c>
-      <c r="I5">
-        <v>648</v>
-      </c>
-      <c r="J5">
-        <v>1368</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>268</v>
-      </c>
-      <c r="N5">
-        <v>603</v>
-      </c>
       <c r="O5">
-        <v>644</v>
+        <v>13</v>
       </c>
       <c r="P5">
-        <v>1541</v>
+        <v>28</v>
       </c>
       <c r="Q5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>299</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>835</v>
+        <v>15</v>
       </c>
       <c r="V5">
-        <v>1564</v>
+        <v>16</v>
       </c>
       <c r="W5">
-        <v>0.474</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y5">
-        <v>0.444</v>
+        <v>0.4</v>
       </c>
       <c r="Z5">
-        <v>12.9</v>
+        <v>8.1</v>
       </c>
       <c r="AA5">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB5">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AC5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" t="s">
         <v>168</v>
@@ -1358,76 +1355,73 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>3378</v>
+        <v>634</v>
       </c>
       <c r="I6">
-        <v>347</v>
+        <v>68</v>
       </c>
       <c r="J6">
-        <v>693</v>
+        <v>125</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="N6">
-        <v>316</v>
+        <v>67</v>
       </c>
       <c r="O6">
-        <v>292</v>
+        <v>58</v>
       </c>
       <c r="P6">
-        <v>766</v>
+        <v>149</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="S6">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="T6">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="U6">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="V6">
-        <v>880</v>
+        <v>176</v>
       </c>
       <c r="W6">
-        <v>0.501</v>
-      </c>
-      <c r="X6">
-        <v>0.286</v>
+        <v>0.544</v>
       </c>
       <c r="Y6">
-        <v>0.582</v>
+        <v>0.597</v>
       </c>
       <c r="Z6">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="AA6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB6">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AC6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="s">
         <v>168</v>
@@ -1450,19 +1444,19 @@
         <v>22</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>27</v>
-      </c>
       <c r="H7">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1471,52 +1465,49 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>2</v>
       </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>20</v>
-      </c>
       <c r="V7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>0.514</v>
-      </c>
-      <c r="Y7">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="Z7">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA7">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="s">
         <v>168</v>
@@ -1539,76 +1530,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>5025</v>
+        <v>669</v>
       </c>
       <c r="I8">
-        <v>802</v>
+        <v>98</v>
       </c>
       <c r="J8">
-        <v>1748</v>
+        <v>220</v>
       </c>
       <c r="K8">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="L8">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="M8">
-        <v>364</v>
+        <v>61</v>
       </c>
       <c r="N8">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="O8">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="P8">
-        <v>829</v>
+        <v>94</v>
       </c>
       <c r="Q8">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="R8">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="S8">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="U8">
-        <v>408</v>
+        <v>49</v>
       </c>
       <c r="V8">
-        <v>2178</v>
+        <v>291</v>
       </c>
       <c r="W8">
-        <v>0.459</v>
+        <v>0.445</v>
       </c>
       <c r="X8">
-        <v>0.409</v>
+        <v>0.43</v>
       </c>
       <c r="Y8">
-        <v>0.77</v>
+        <v>0.782</v>
       </c>
       <c r="Z8">
-        <v>24.2</v>
+        <v>16.3</v>
       </c>
       <c r="AA8">
-        <v>10.5</v>
+        <v>7.1</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AC8">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD8" t="s">
         <v>168</v>
@@ -1631,73 +1622,73 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="H9">
-        <v>3064</v>
+        <v>1064</v>
       </c>
       <c r="I9">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="J9">
-        <v>721</v>
+        <v>275</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="N9">
-        <v>271</v>
+        <v>90</v>
       </c>
       <c r="O9">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="P9">
-        <v>769</v>
+        <v>294</v>
       </c>
       <c r="Q9">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="R9">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="S9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="T9">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="U9">
-        <v>421</v>
+        <v>146</v>
       </c>
       <c r="V9">
-        <v>894</v>
+        <v>334</v>
       </c>
       <c r="W9">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
       <c r="X9">
-        <v>0.172</v>
+        <v>0.185</v>
       </c>
       <c r="Y9">
-        <v>0.542</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Z9">
-        <v>13.9</v>
+        <v>15.6</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="AB9">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="AC9">
         <v>0.6</v>
@@ -1723,76 +1714,76 @@
         <v>22</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>191</v>
+      </c>
+      <c r="I10">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>78</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <v>14</v>
       </c>
-      <c r="G10">
-        <v>828</v>
-      </c>
-      <c r="H10">
-        <v>16228</v>
-      </c>
-      <c r="I10">
-        <v>2821</v>
-      </c>
-      <c r="J10">
-        <v>6657</v>
-      </c>
-      <c r="K10">
-        <v>816</v>
-      </c>
-      <c r="L10">
-        <v>2321</v>
-      </c>
-      <c r="M10">
-        <v>929</v>
-      </c>
-      <c r="N10">
-        <v>1170</v>
-      </c>
-      <c r="O10">
-        <v>253</v>
-      </c>
-      <c r="P10">
-        <v>1743</v>
-      </c>
-      <c r="Q10">
-        <v>3257</v>
-      </c>
-      <c r="R10">
-        <v>330</v>
-      </c>
-      <c r="S10">
-        <v>24</v>
-      </c>
-      <c r="T10">
-        <v>1261</v>
-      </c>
       <c r="U10">
-        <v>1166</v>
+        <v>19</v>
       </c>
       <c r="V10">
-        <v>7387</v>
+        <v>78</v>
       </c>
       <c r="W10">
-        <v>0.424</v>
+        <v>0.359</v>
       </c>
       <c r="X10">
-        <v>0.352</v>
+        <v>0.286</v>
       </c>
       <c r="Y10">
-        <v>0.794</v>
+        <v>0.667</v>
       </c>
       <c r="Z10">
-        <v>19.6</v>
+        <v>5.8</v>
       </c>
       <c r="AA10">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="AB10">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" t="s">
         <v>168</v>
@@ -1815,76 +1806,76 @@
         <v>21</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>15806</v>
+        <v>1629</v>
       </c>
       <c r="I11">
-        <v>2932</v>
+        <v>267</v>
       </c>
       <c r="J11">
-        <v>6676</v>
+        <v>625</v>
       </c>
       <c r="K11">
-        <v>627</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>1771</v>
+        <v>268</v>
       </c>
       <c r="M11">
-        <v>1382</v>
+        <v>117</v>
       </c>
       <c r="N11">
-        <v>1677</v>
+        <v>142</v>
       </c>
       <c r="O11">
-        <v>530</v>
+        <v>52</v>
       </c>
       <c r="P11">
-        <v>2541</v>
+        <v>255</v>
       </c>
       <c r="Q11">
-        <v>653</v>
+        <v>50</v>
       </c>
       <c r="R11">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="S11">
-        <v>470</v>
+        <v>53</v>
       </c>
       <c r="T11">
-        <v>851</v>
+        <v>107</v>
       </c>
       <c r="U11">
-        <v>1338</v>
+        <v>180</v>
       </c>
       <c r="V11">
-        <v>7873</v>
+        <v>751</v>
       </c>
       <c r="W11">
-        <v>0.439</v>
+        <v>0.427</v>
       </c>
       <c r="X11">
-        <v>0.354</v>
+        <v>0.373</v>
       </c>
       <c r="Y11">
         <v>0.824</v>
       </c>
       <c r="Z11">
-        <v>28.7</v>
+        <v>25.1</v>
       </c>
       <c r="AA11">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
       <c r="AB11">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC11">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD11" t="s">
         <v>168</v>
@@ -1999,19 +1990,19 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="H13">
-        <v>4482</v>
+        <v>669</v>
       </c>
       <c r="I13">
-        <v>567</v>
+        <v>99</v>
       </c>
       <c r="J13">
-        <v>1042</v>
+        <v>171</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2020,52 +2011,52 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="N13">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="O13">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="P13">
-        <v>1258</v>
+        <v>176</v>
       </c>
       <c r="Q13">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="S13">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="T13">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="U13">
-        <v>466</v>
+        <v>94</v>
       </c>
       <c r="V13">
-        <v>1340</v>
+        <v>254</v>
       </c>
       <c r="W13">
+        <v>0.579</v>
+      </c>
+      <c r="Y13">
         <v>0.544</v>
       </c>
-      <c r="Y13">
-        <v>0.445</v>
-      </c>
       <c r="Z13">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AA13">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AB13">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD13" t="s">
         <v>168</v>
@@ -2180,76 +2171,76 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>502</v>
+        <v>56</v>
       </c>
       <c r="H15">
-        <v>11539</v>
+        <v>675</v>
       </c>
       <c r="I15">
-        <v>1554</v>
+        <v>102</v>
       </c>
       <c r="J15">
-        <v>3169</v>
+        <v>193</v>
       </c>
       <c r="K15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>742</v>
+        <v>56</v>
       </c>
       <c r="N15">
-        <v>1099</v>
+        <v>83</v>
       </c>
       <c r="O15">
-        <v>451</v>
+        <v>37</v>
       </c>
       <c r="P15">
-        <v>1427</v>
+        <v>75</v>
       </c>
       <c r="Q15">
-        <v>828</v>
+        <v>24</v>
       </c>
       <c r="R15">
-        <v>622</v>
+        <v>37</v>
       </c>
       <c r="S15">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>390</v>
+        <v>24</v>
       </c>
       <c r="U15">
-        <v>545</v>
+        <v>44</v>
       </c>
       <c r="V15">
-        <v>3940</v>
+        <v>260</v>
       </c>
       <c r="W15">
-        <v>0.49</v>
+        <v>0.528</v>
       </c>
       <c r="X15">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0.675</v>
       </c>
       <c r="Z15">
-        <v>23</v>
+        <v>12.1</v>
       </c>
       <c r="AA15">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="AB15">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC15">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD15" t="s">
         <v>168</v>
@@ -2272,19 +2263,19 @@
         <v>25</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>598</v>
+        <v>271</v>
       </c>
       <c r="I16">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="J16">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2293,52 +2284,52 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N16">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="O16">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="P16">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="U16">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="V16">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="W16">
-        <v>0.516</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Z16">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AA16">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AB16">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC16">
         <v>0.1</v>
@@ -2364,76 +2355,76 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H17">
-        <v>711</v>
+        <v>450</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J17">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N17">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P17">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q17">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="R17">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="S17">
         <v>7</v>
       </c>
       <c r="T17">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="U17">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="V17">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="W17">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="X17">
-        <v>0.25</v>
+        <v>0.214</v>
       </c>
       <c r="Y17">
-        <v>0.643</v>
+        <v>0.649</v>
       </c>
       <c r="Z17">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA17">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD17" t="s">
         <v>168</v>
@@ -2456,76 +2447,76 @@
         <v>21</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="H18">
-        <v>7329</v>
+        <v>202</v>
       </c>
       <c r="I18">
-        <v>1198</v>
+        <v>28</v>
       </c>
       <c r="J18">
-        <v>2854</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>831</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>553</v>
+        <v>14</v>
       </c>
       <c r="O18">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="P18">
-        <v>760</v>
+        <v>21</v>
       </c>
       <c r="Q18">
-        <v>458</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="S18">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>378</v>
+        <v>14</v>
       </c>
       <c r="U18">
-        <v>538</v>
+        <v>24</v>
       </c>
       <c r="V18">
-        <v>3118</v>
+        <v>73</v>
       </c>
       <c r="W18">
-        <v>0.42</v>
+        <v>0.378</v>
       </c>
       <c r="X18">
-        <v>0.332</v>
+        <v>0.28</v>
       </c>
       <c r="Y18">
-        <v>0.8070000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="Z18">
-        <v>18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA18">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB18">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AC18">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD18" t="s">
         <v>168</v>
@@ -2548,73 +2539,73 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="H19">
-        <v>4600</v>
+        <v>1169</v>
       </c>
       <c r="I19">
-        <v>675</v>
+        <v>182</v>
       </c>
       <c r="J19">
-        <v>1599</v>
+        <v>392</v>
       </c>
       <c r="K19">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="L19">
-        <v>591</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="N19">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="O19">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="P19">
-        <v>588</v>
+        <v>128</v>
       </c>
       <c r="Q19">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="R19">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="S19">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="T19">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="U19">
-        <v>420</v>
+        <v>118</v>
       </c>
       <c r="V19">
-        <v>1778</v>
+        <v>442</v>
       </c>
       <c r="W19">
-        <v>0.422</v>
+        <v>0.464</v>
       </c>
       <c r="X19">
-        <v>0.338</v>
+        <v>0.347</v>
       </c>
       <c r="Y19">
-        <v>0.704</v>
+        <v>0.609</v>
       </c>
       <c r="Z19">
-        <v>15.4</v>
+        <v>17.4</v>
       </c>
       <c r="AA19">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AC19">
         <v>0.4</v>
@@ -2640,76 +2631,76 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="H20">
-        <v>2771</v>
+        <v>777</v>
       </c>
       <c r="I20">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="J20">
-        <v>778</v>
+        <v>228</v>
       </c>
       <c r="K20">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="L20">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="N20">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="O20">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="P20">
-        <v>336</v>
+        <v>104</v>
       </c>
       <c r="Q20">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="R20">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="S20">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="U20">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="V20">
-        <v>742</v>
+        <v>235</v>
       </c>
       <c r="W20">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="X20">
-        <v>0.299</v>
+        <v>0.277</v>
       </c>
       <c r="Y20">
-        <v>0.599</v>
+        <v>0.585</v>
       </c>
       <c r="Z20">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="AA20">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AC20">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD20" t="s">
         <v>168</v>
@@ -2732,40 +2723,40 @@
         <v>24</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>108</v>
-      </c>
-      <c r="I21">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
         <v>3</v>
       </c>
-      <c r="J21">
-        <v>22</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>8</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
       <c r="P21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2774,34 +2765,31 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.136</v>
-      </c>
-      <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AA21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD21" t="s">
         <v>168</v>
@@ -2824,76 +2812,73 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>702</v>
+        <v>180</v>
       </c>
       <c r="I22">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="J22">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="N22">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="P22">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="R22">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="U22">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="V22">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="W22">
-        <v>0.402</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
+        <v>0.423</v>
       </c>
       <c r="Y22">
-        <v>0.732</v>
+        <v>0.7</v>
       </c>
       <c r="Z22">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="AA22">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AB22">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AC22">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD22" t="s">
         <v>168</v>
@@ -2916,76 +2901,76 @@
         <v>24</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="H23">
-        <v>2614</v>
+        <v>1177</v>
       </c>
       <c r="I23">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>653</v>
+        <v>292</v>
       </c>
       <c r="K23">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="L23">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="M23">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N23">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="O23">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="P23">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="Q23">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="R23">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="S23">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="T23">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="U23">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="V23">
-        <v>655</v>
+        <v>284</v>
       </c>
       <c r="W23">
-        <v>0.357</v>
+        <v>0.342</v>
       </c>
       <c r="X23">
-        <v>0.301</v>
+        <v>0.288</v>
       </c>
       <c r="Y23">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="Z23">
-        <v>14</v>
+        <v>18.4</v>
       </c>
       <c r="AA23">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="AB23">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC23">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD23" t="s">
         <v>168</v>
@@ -3008,76 +2993,76 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>1535</v>
+        <v>359</v>
       </c>
       <c r="I24">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="J24">
-        <v>571</v>
+        <v>126</v>
       </c>
       <c r="K24">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L24">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="N24">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="O24">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P24">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Q24">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="R24">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>15</v>
+      </c>
+      <c r="U24">
         <v>21</v>
       </c>
-      <c r="T24">
-        <v>87</v>
-      </c>
-      <c r="U24">
-        <v>128</v>
-      </c>
       <c r="V24">
-        <v>588</v>
+        <v>119</v>
       </c>
       <c r="W24">
-        <v>0.389</v>
+        <v>0.381</v>
       </c>
       <c r="X24">
-        <v>0.312</v>
+        <v>0.24</v>
       </c>
       <c r="Y24">
-        <v>0.884</v>
+        <v>0.733</v>
       </c>
       <c r="Z24">
-        <v>10.7</v>
+        <v>8.5</v>
       </c>
       <c r="AA24">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="AB24">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AC24">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" t="s">
         <v>168</v>
@@ -3100,76 +3085,76 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="H25">
-        <v>9840</v>
+        <v>1090</v>
       </c>
       <c r="I25">
-        <v>1460</v>
+        <v>124</v>
       </c>
       <c r="J25">
-        <v>3452</v>
+        <v>294</v>
       </c>
       <c r="K25">
-        <v>583</v>
+        <v>45</v>
       </c>
       <c r="L25">
-        <v>1559</v>
+        <v>137</v>
       </c>
       <c r="M25">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>521</v>
+        <v>38</v>
       </c>
       <c r="O25">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="P25">
-        <v>958</v>
+        <v>119</v>
       </c>
       <c r="Q25">
-        <v>1453</v>
+        <v>137</v>
       </c>
       <c r="R25">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="S25">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="T25">
-        <v>695</v>
+        <v>73</v>
       </c>
       <c r="U25">
-        <v>713</v>
+        <v>77</v>
       </c>
       <c r="V25">
-        <v>3888</v>
+        <v>320</v>
       </c>
       <c r="W25">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="X25">
-        <v>0.374</v>
+        <v>0.328</v>
       </c>
       <c r="Y25">
-        <v>0.739</v>
+        <v>0.711</v>
       </c>
       <c r="Z25">
-        <v>19.5</v>
+        <v>15.1</v>
       </c>
       <c r="AA25">
-        <v>7.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB25">
+        <v>1.7</v>
+      </c>
+      <c r="AC25">
         <v>1.9</v>
-      </c>
-      <c r="AC25">
-        <v>2.9</v>
       </c>
       <c r="AD25" t="s">
         <v>168</v>
@@ -3192,41 +3177,41 @@
         <v>25</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>15</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>11</v>
-      </c>
-      <c r="H26">
-        <v>86</v>
-      </c>
-      <c r="I26">
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
         <v>9</v>
       </c>
-      <c r="J26">
-        <v>29</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>7</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
-      </c>
       <c r="R26">
         <v>1</v>
       </c>
@@ -3234,16 +3219,16 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="W26">
-        <v>0.31</v>
+        <v>0.333</v>
       </c>
       <c r="X26">
         <v>0.25</v>
@@ -3252,16 +3237,16 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="AA26">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AB26">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD26" t="s">
         <v>168</v>
@@ -3284,73 +3269,73 @@
         <v>23</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>752</v>
+        <v>82</v>
       </c>
       <c r="H27">
-        <v>19279</v>
+        <v>1879</v>
       </c>
       <c r="I27">
-        <v>2704</v>
+        <v>300</v>
       </c>
       <c r="J27">
-        <v>6750</v>
+        <v>691</v>
       </c>
       <c r="K27">
-        <v>1104</v>
+        <v>68</v>
       </c>
       <c r="L27">
-        <v>3017</v>
+        <v>185</v>
       </c>
       <c r="M27">
-        <v>1217</v>
+        <v>164</v>
       </c>
       <c r="N27">
-        <v>1429</v>
+        <v>192</v>
       </c>
       <c r="O27">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="P27">
-        <v>1686</v>
+        <v>218</v>
       </c>
       <c r="Q27">
-        <v>2112</v>
+        <v>232</v>
       </c>
       <c r="R27">
-        <v>528</v>
+        <v>53</v>
       </c>
       <c r="S27">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="T27">
-        <v>1106</v>
+        <v>152</v>
       </c>
       <c r="U27">
-        <v>1584</v>
+        <v>184</v>
       </c>
       <c r="V27">
-        <v>7729</v>
+        <v>832</v>
       </c>
       <c r="W27">
-        <v>0.401</v>
+        <v>0.434</v>
       </c>
       <c r="X27">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="Y27">
-        <v>0.852</v>
+        <v>0.854</v>
       </c>
       <c r="Z27">
-        <v>25.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA27">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="AB27">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AC27">
         <v>2.8</v>
@@ -3376,25 +3361,25 @@
         <v>29</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H28">
-        <v>1983</v>
+        <v>1909</v>
       </c>
       <c r="I28">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J28">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="K28">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L28">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M28">
         <v>57</v>
@@ -3403,49 +3388,49 @@
         <v>78</v>
       </c>
       <c r="O28">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R28">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S28">
         <v>15</v>
       </c>
       <c r="T28">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U28">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V28">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="W28">
-        <v>0.415</v>
+        <v>0.42</v>
       </c>
       <c r="X28">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="Y28">
         <v>0.731</v>
       </c>
       <c r="Z28">
-        <v>26.8</v>
+        <v>28.5</v>
       </c>
       <c r="AA28">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB28">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AC28">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD28" t="s">
         <v>168</v>
@@ -3468,76 +3453,76 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>940</v>
+        <v>78</v>
       </c>
       <c r="H29">
-        <v>31201</v>
+        <v>2103</v>
       </c>
       <c r="I29">
-        <v>6104</v>
+        <v>321</v>
       </c>
       <c r="J29">
-        <v>13398</v>
+        <v>760</v>
       </c>
       <c r="K29">
-        <v>964</v>
+        <v>52</v>
       </c>
       <c r="L29">
-        <v>2788</v>
+        <v>143</v>
       </c>
       <c r="M29">
-        <v>2909</v>
+        <v>152</v>
       </c>
       <c r="N29">
-        <v>3645</v>
+        <v>209</v>
       </c>
       <c r="O29">
-        <v>1313</v>
+        <v>93</v>
       </c>
       <c r="P29">
-        <v>5543</v>
+        <v>348</v>
       </c>
       <c r="Q29">
-        <v>2067</v>
+        <v>100</v>
       </c>
       <c r="R29">
-        <v>1133</v>
+        <v>71</v>
       </c>
       <c r="S29">
-        <v>717</v>
+        <v>74</v>
       </c>
       <c r="T29">
-        <v>2087</v>
+        <v>140</v>
       </c>
       <c r="U29">
-        <v>2232</v>
+        <v>192</v>
       </c>
       <c r="V29">
-        <v>16081</v>
+        <v>846</v>
       </c>
       <c r="W29">
-        <v>0.456</v>
+        <v>0.422</v>
       </c>
       <c r="X29">
-        <v>0.346</v>
+        <v>0.364</v>
       </c>
       <c r="Y29">
-        <v>0.798</v>
+        <v>0.727</v>
       </c>
       <c r="Z29">
-        <v>33.2</v>
+        <v>27</v>
       </c>
       <c r="AA29">
-        <v>17.1</v>
+        <v>10.8</v>
       </c>
       <c r="AB29">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="AC29">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD29" t="s">
         <v>168</v>
@@ -3560,73 +3545,73 @@
         <v>23</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="H30">
-        <v>2348</v>
+        <v>1239</v>
       </c>
       <c r="I30">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="J30">
-        <v>560</v>
+        <v>264</v>
       </c>
       <c r="K30">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L30">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="N30">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="O30">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="P30">
-        <v>330</v>
+        <v>173</v>
       </c>
       <c r="Q30">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="R30">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="S30">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="T30">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="U30">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="V30">
-        <v>670</v>
+        <v>321</v>
       </c>
       <c r="W30">
-        <v>0.47</v>
+        <v>0.462</v>
       </c>
       <c r="X30">
-        <v>0.316</v>
+        <v>0.234</v>
       </c>
       <c r="Y30">
-        <v>0.8149999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="Z30">
-        <v>16.2</v>
+        <v>17.7</v>
       </c>
       <c r="AA30">
         <v>4.6</v>
       </c>
       <c r="AB30">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AC30">
         <v>0.8</v>
@@ -3652,76 +3637,76 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>397</v>
+        <v>60</v>
       </c>
       <c r="H31">
-        <v>9316</v>
+        <v>988</v>
       </c>
       <c r="I31">
-        <v>1065</v>
+        <v>98</v>
       </c>
       <c r="J31">
-        <v>2646</v>
+        <v>231</v>
       </c>
       <c r="K31">
-        <v>578</v>
+        <v>52</v>
       </c>
       <c r="L31">
-        <v>1419</v>
+        <v>124</v>
       </c>
       <c r="M31">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="N31">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="O31">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="P31">
-        <v>792</v>
+        <v>92</v>
       </c>
       <c r="Q31">
-        <v>775</v>
+        <v>69</v>
       </c>
       <c r="R31">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="S31">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="T31">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="U31">
-        <v>811</v>
+        <v>94</v>
       </c>
       <c r="V31">
-        <v>3115</v>
+        <v>276</v>
       </c>
       <c r="W31">
-        <v>0.402</v>
+        <v>0.424</v>
       </c>
       <c r="X31">
-        <v>0.407</v>
+        <v>0.419</v>
       </c>
       <c r="Y31">
-        <v>0.78</v>
+        <v>0.718</v>
       </c>
       <c r="Z31">
-        <v>23.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA31">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="AB31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC31">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AD31" t="s">
         <v>168</v>
@@ -4011,76 +3996,76 @@
         <v>27</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="H35">
-        <v>1939</v>
+        <v>936</v>
       </c>
       <c r="I35">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="J35">
-        <v>681</v>
+        <v>330</v>
       </c>
       <c r="K35">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="L35">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="M35">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="N35">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="O35">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="P35">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="Q35">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="R35">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="S35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T35">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="U35">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="V35">
-        <v>819</v>
+        <v>442</v>
       </c>
       <c r="W35">
-        <v>0.458</v>
+        <v>0.527</v>
       </c>
       <c r="X35">
-        <v>0.381</v>
+        <v>0.461</v>
       </c>
       <c r="Y35">
-        <v>0.786</v>
+        <v>0.774</v>
       </c>
       <c r="Z35">
-        <v>12.8</v>
+        <v>19.5</v>
       </c>
       <c r="AA35">
-        <v>5.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB35">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="AC35">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD35" t="s">
         <v>168</v>
@@ -4195,76 +4180,73 @@
         <v>22</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>518</v>
+        <v>27</v>
       </c>
       <c r="H37">
-        <v>6134</v>
+        <v>185</v>
       </c>
       <c r="I37">
-        <v>687</v>
+        <v>20</v>
       </c>
       <c r="J37">
-        <v>1177</v>
+        <v>36</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>539</v>
+        <v>24</v>
       </c>
       <c r="N37">
-        <v>830</v>
+        <v>40</v>
       </c>
       <c r="O37">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="P37">
-        <v>1140</v>
+        <v>31</v>
       </c>
       <c r="Q37">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="S37">
-        <v>271</v>
+        <v>7</v>
       </c>
       <c r="T37">
-        <v>384</v>
+        <v>16</v>
       </c>
       <c r="U37">
-        <v>1037</v>
+        <v>40</v>
       </c>
       <c r="V37">
-        <v>1913</v>
+        <v>64</v>
       </c>
       <c r="W37">
-        <v>0.584</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
+        <v>0.556</v>
       </c>
       <c r="Y37">
-        <v>0.649</v>
+        <v>0.6</v>
       </c>
       <c r="Z37">
-        <v>11.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA37">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="AB37">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="AC37">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="s">
         <v>168</v>
@@ -4373,76 +4355,76 @@
         <v>19</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>802</v>
+        <v>66</v>
       </c>
       <c r="H39">
-        <v>18732</v>
+        <v>973</v>
       </c>
       <c r="I39">
-        <v>3094</v>
+        <v>139</v>
       </c>
       <c r="J39">
-        <v>6972</v>
+        <v>363</v>
       </c>
       <c r="K39">
-        <v>862</v>
+        <v>54</v>
       </c>
       <c r="L39">
-        <v>2356</v>
+        <v>148</v>
       </c>
       <c r="M39">
-        <v>1224</v>
+        <v>70</v>
       </c>
       <c r="N39">
-        <v>1577</v>
+        <v>89</v>
       </c>
       <c r="O39">
-        <v>1388</v>
+        <v>58</v>
       </c>
       <c r="P39">
-        <v>4610</v>
+        <v>189</v>
       </c>
       <c r="Q39">
-        <v>902</v>
+        <v>49</v>
       </c>
       <c r="R39">
-        <v>549</v>
+        <v>27</v>
       </c>
       <c r="S39">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="T39">
-        <v>783</v>
+        <v>51</v>
       </c>
       <c r="U39">
-        <v>1958</v>
+        <v>147</v>
       </c>
       <c r="V39">
-        <v>8274</v>
+        <v>402</v>
       </c>
       <c r="W39">
-        <v>0.444</v>
+        <v>0.383</v>
       </c>
       <c r="X39">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="Y39">
-        <v>0.776</v>
+        <v>0.787</v>
       </c>
       <c r="Z39">
-        <v>23.4</v>
+        <v>14.7</v>
       </c>
       <c r="AA39">
-        <v>10.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB39">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="AC39">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD39" t="s">
         <v>168</v>
@@ -4465,19 +4447,19 @@
         <v>23</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H40">
-        <v>1302</v>
+        <v>753</v>
       </c>
       <c r="I40">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="J40">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4486,49 +4468,49 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="N40">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="O40">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="P40">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R40">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="S40">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="T40">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="U40">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="V40">
-        <v>439</v>
+        <v>260</v>
       </c>
       <c r="W40">
-        <v>0.517</v>
+        <v>0.538</v>
       </c>
       <c r="Y40">
-        <v>0.672</v>
+        <v>0.661</v>
       </c>
       <c r="Z40">
         <v>12.8</v>
       </c>
       <c r="AA40">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AB40">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AC40">
         <v>0.3</v>
@@ -4554,76 +4536,76 @@
         <v>23</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>867</v>
+        <v>336</v>
       </c>
       <c r="I41">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="J41">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O41">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="P41">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="R41">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="S41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="U41">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="V41">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="W41">
-        <v>0.442</v>
+        <v>0.462</v>
       </c>
       <c r="X41">
-        <v>0.306</v>
+        <v>0.111</v>
       </c>
       <c r="Y41">
-        <v>0.6850000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="Z41">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA41">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AB41">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AC41">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD41" t="s">
         <v>168</v>
@@ -4646,76 +4628,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="H42">
-        <v>3092</v>
+        <v>666</v>
       </c>
       <c r="I42">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="J42">
-        <v>645</v>
+        <v>128</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="N42">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="O42">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="P42">
-        <v>654</v>
+        <v>136</v>
       </c>
       <c r="Q42">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="R42">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="S42">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="T42">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="U42">
-        <v>554</v>
+        <v>124</v>
       </c>
       <c r="V42">
-        <v>839</v>
+        <v>189</v>
       </c>
       <c r="W42">
-        <v>0.467</v>
+        <v>0.508</v>
       </c>
       <c r="X42">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.717</v>
+        <v>0.787</v>
       </c>
       <c r="Z42">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA42">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB42">
         <v>2.3</v>
       </c>
       <c r="AC42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD42" t="s">
         <v>168</v>
@@ -4738,76 +4720,76 @@
         <v>22</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="H43">
-        <v>1340</v>
+        <v>967</v>
       </c>
       <c r="I43">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="J43">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="K43">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L43">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="N43">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O43">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P43">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="Q43">
+        <v>41</v>
+      </c>
+      <c r="R43">
         <v>53</v>
       </c>
-      <c r="R43">
-        <v>68</v>
-      </c>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="U43">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="V43">
-        <v>511</v>
+        <v>369</v>
       </c>
       <c r="W43">
-        <v>0.453</v>
+        <v>0.457</v>
       </c>
       <c r="X43">
-        <v>0.324</v>
+        <v>0.283</v>
       </c>
       <c r="Y43">
-        <v>0.8169999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="Z43">
-        <v>12.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA43">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="AB43">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AC43">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD43" t="s">
         <v>168</v>
@@ -4919,76 +4901,76 @@
         <v>20</v>
       </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>175</v>
+      </c>
+      <c r="I45">
         <v>14</v>
       </c>
-      <c r="G45">
-        <v>909</v>
-      </c>
-      <c r="H45">
-        <v>28717</v>
-      </c>
-      <c r="I45">
-        <v>4297</v>
-      </c>
       <c r="J45">
-        <v>10152</v>
+        <v>38</v>
       </c>
       <c r="K45">
-        <v>1690</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>4611</v>
+        <v>8</v>
       </c>
       <c r="M45">
-        <v>3130</v>
+        <v>25</v>
       </c>
       <c r="N45">
-        <v>3869</v>
+        <v>28</v>
       </c>
       <c r="O45">
-        <v>735</v>
+        <v>12</v>
       </c>
       <c r="P45">
-        <v>3919</v>
+        <v>31</v>
       </c>
       <c r="Q45">
-        <v>5629</v>
+        <v>32</v>
       </c>
       <c r="R45">
-        <v>1227</v>
+        <v>14</v>
       </c>
       <c r="S45">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>2105</v>
+        <v>12</v>
       </c>
       <c r="U45">
-        <v>2472</v>
+        <v>20</v>
       </c>
       <c r="V45">
-        <v>13414</v>
+        <v>56</v>
       </c>
       <c r="W45">
-        <v>0.423</v>
+        <v>0.368</v>
       </c>
       <c r="X45">
-        <v>0.367</v>
+        <v>0.375</v>
       </c>
       <c r="Y45">
-        <v>0.8090000000000001</v>
+        <v>0.893</v>
       </c>
       <c r="Z45">
-        <v>31.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA45">
-        <v>14.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB45">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="AC45">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="AD45" t="s">
         <v>168</v>
@@ -5370,76 +5352,73 @@
         <v>23</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>509</v>
+        <v>71</v>
       </c>
       <c r="I50">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="J50">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="N50">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="O50">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="P50">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="U50">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="V50">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="W50">
-        <v>0.41</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
+        <v>0.647</v>
       </c>
       <c r="Y50">
-        <v>0.589</v>
+        <v>0.389</v>
       </c>
       <c r="Z50">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="AA50">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AB50">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AC50">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="s">
         <v>168</v>
@@ -5462,76 +5441,76 @@
         <v>21</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>990</v>
+        <v>82</v>
       </c>
       <c r="H51">
-        <v>28824</v>
+        <v>1472</v>
       </c>
       <c r="I51">
-        <v>5199</v>
+        <v>209</v>
       </c>
       <c r="J51">
-        <v>10600</v>
+        <v>398</v>
       </c>
       <c r="K51">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>1398</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>2988</v>
+        <v>140</v>
       </c>
       <c r="N51">
-        <v>4055</v>
+        <v>208</v>
       </c>
       <c r="O51">
-        <v>2217</v>
+        <v>183</v>
       </c>
       <c r="P51">
-        <v>7270</v>
+        <v>423</v>
       </c>
       <c r="Q51">
-        <v>2239</v>
+        <v>62</v>
       </c>
       <c r="R51">
-        <v>1262</v>
+        <v>67</v>
       </c>
       <c r="S51">
-        <v>994</v>
+        <v>74</v>
       </c>
       <c r="T51">
-        <v>1752</v>
+        <v>94</v>
       </c>
       <c r="U51">
-        <v>3051</v>
+        <v>236</v>
       </c>
       <c r="V51">
-        <v>13865</v>
+        <v>559</v>
       </c>
       <c r="W51">
-        <v>0.49</v>
+        <v>0.525</v>
       </c>
       <c r="X51">
-        <v>0.343</v>
+        <v>0.333</v>
       </c>
       <c r="Y51">
-        <v>0.737</v>
+        <v>0.673</v>
       </c>
       <c r="Z51">
-        <v>29.1</v>
+        <v>18</v>
       </c>
       <c r="AA51">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="AB51">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
       <c r="AC51">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD51" t="s">
         <v>168</v>
@@ -5554,73 +5533,73 @@
         <v>21</v>
       </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>44</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>6</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
         <v>4</v>
       </c>
-      <c r="G52">
-        <v>74</v>
-      </c>
-      <c r="H52">
-        <v>438</v>
-      </c>
-      <c r="I52">
-        <v>52</v>
-      </c>
-      <c r="J52">
-        <v>122</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>36</v>
-      </c>
-      <c r="N52">
-        <v>66</v>
-      </c>
-      <c r="O52">
-        <v>27</v>
-      </c>
-      <c r="P52">
-        <v>104</v>
-      </c>
-      <c r="Q52">
-        <v>7</v>
-      </c>
-      <c r="R52">
-        <v>13</v>
-      </c>
-      <c r="S52">
-        <v>7</v>
-      </c>
-      <c r="T52">
-        <v>30</v>
-      </c>
-      <c r="U52">
-        <v>100</v>
-      </c>
       <c r="V52">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="W52">
-        <v>0.426</v>
+        <v>0.167</v>
       </c>
       <c r="Y52">
-        <v>0.545</v>
+        <v>0.333</v>
       </c>
       <c r="Z52">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA52">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC52">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD52" t="s">
         <v>168</v>
@@ -5643,76 +5622,76 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="H53">
-        <v>3278</v>
+        <v>2326</v>
       </c>
       <c r="I53">
-        <v>467</v>
+        <v>355</v>
       </c>
       <c r="J53">
-        <v>1252</v>
+        <v>944</v>
       </c>
       <c r="K53">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="L53">
-        <v>375</v>
+        <v>258</v>
       </c>
       <c r="M53">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="N53">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="O53">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="P53">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="Q53">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="R53">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="S53">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T53">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="U53">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="V53">
-        <v>1200</v>
+        <v>917</v>
       </c>
       <c r="W53">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="X53">
-        <v>0.331</v>
+        <v>0.337</v>
       </c>
       <c r="Y53">
         <v>0.71</v>
       </c>
       <c r="Z53">
-        <v>20.4</v>
+        <v>29.8</v>
       </c>
       <c r="AA53">
-        <v>7.5</v>
+        <v>11.8</v>
       </c>
       <c r="AB53">
+        <v>2.9</v>
+      </c>
+      <c r="AC53">
         <v>2.1</v>
-      </c>
-      <c r="AC53">
-        <v>1.4</v>
       </c>
       <c r="AD53" t="s">
         <v>168</v>
@@ -5827,76 +5806,76 @@
         <v>23</v>
       </c>
       <c r="F55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>467</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>5657</v>
+        <v>191</v>
       </c>
       <c r="I55">
-        <v>751</v>
+        <v>18</v>
       </c>
       <c r="J55">
-        <v>1717</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>575</v>
+        <v>13</v>
       </c>
       <c r="L55">
-        <v>1337</v>
+        <v>39</v>
       </c>
       <c r="M55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>591</v>
+        <v>26</v>
       </c>
       <c r="Q55">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="R55">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="S55">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="U55">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="V55">
-        <v>2177</v>
+        <v>51</v>
       </c>
       <c r="W55">
-        <v>0.437</v>
+        <v>0.36</v>
       </c>
       <c r="X55">
-        <v>0.43</v>
+        <v>0.333</v>
       </c>
       <c r="Y55">
-        <v>0.877</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <v>12.1</v>
+        <v>5.5</v>
       </c>
       <c r="AA55">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB55">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AC55">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD55" t="s">
         <v>168</v>
@@ -5919,76 +5898,73 @@
         <v>20</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H56">
-        <v>524</v>
+        <v>119</v>
       </c>
       <c r="I56">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="J56">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N56">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="O56">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="P56">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="R56">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="S56">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="T56">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="U56">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="V56">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="W56">
-        <v>0.494</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="Y56">
-        <v>0.583</v>
+        <v>0.647</v>
       </c>
       <c r="Z56">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="AA56">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB56">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AC56">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AD56" t="s">
         <v>168</v>
@@ -6103,76 +6079,76 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="H58">
-        <v>3320</v>
+        <v>720</v>
       </c>
       <c r="I58">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="J58">
-        <v>952</v>
+        <v>177</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>504</v>
+        <v>106</v>
       </c>
       <c r="N58">
-        <v>739</v>
+        <v>144</v>
       </c>
       <c r="O58">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="P58">
-        <v>911</v>
+        <v>215</v>
       </c>
       <c r="Q58">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="R58">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="S58">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="T58">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="U58">
-        <v>503</v>
+        <v>104</v>
       </c>
       <c r="V58">
-        <v>1484</v>
+        <v>264</v>
       </c>
       <c r="W58">
-        <v>0.515</v>
+        <v>0.446</v>
       </c>
       <c r="X58">
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0.6820000000000001</v>
+        <v>0.736</v>
       </c>
       <c r="Z58">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
       <c r="AA58">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="AB58">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AC58">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD58" t="s">
         <v>168</v>
@@ -6287,76 +6263,76 @@
         <v>23</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>42</v>
+      </c>
+      <c r="H60">
+        <v>408</v>
+      </c>
+      <c r="I60">
+        <v>48</v>
+      </c>
+      <c r="J60">
+        <v>131</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60">
+        <v>57</v>
+      </c>
+      <c r="M60">
+        <v>25</v>
+      </c>
+      <c r="N60">
+        <v>37</v>
+      </c>
+      <c r="O60">
         <v>6</v>
       </c>
-      <c r="G60">
-        <v>241</v>
-      </c>
-      <c r="H60">
-        <v>3303</v>
-      </c>
-      <c r="I60">
-        <v>381</v>
-      </c>
-      <c r="J60">
-        <v>956</v>
-      </c>
-      <c r="K60">
-        <v>161</v>
-      </c>
-      <c r="L60">
-        <v>427</v>
-      </c>
-      <c r="M60">
-        <v>169</v>
-      </c>
-      <c r="N60">
-        <v>209</v>
-      </c>
-      <c r="O60">
+      <c r="P60">
         <v>30</v>
       </c>
-      <c r="P60">
-        <v>266</v>
-      </c>
       <c r="Q60">
-        <v>455</v>
+        <v>65</v>
       </c>
       <c r="R60">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="S60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="U60">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="V60">
-        <v>1092</v>
+        <v>141</v>
       </c>
       <c r="W60">
-        <v>0.399</v>
+        <v>0.366</v>
       </c>
       <c r="X60">
-        <v>0.377</v>
+        <v>0.351</v>
       </c>
       <c r="Y60">
-        <v>0.8090000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="Z60">
-        <v>13.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA60">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB60">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AC60">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD60" t="s">
         <v>168</v>
@@ -6471,76 +6447,76 @@
         <v>22</v>
       </c>
       <c r="F62">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>892</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>23128</v>
+        <v>622</v>
       </c>
       <c r="I62">
-        <v>3877</v>
+        <v>80</v>
       </c>
       <c r="J62">
-        <v>8657</v>
+        <v>195</v>
       </c>
       <c r="K62">
-        <v>1865</v>
+        <v>38</v>
       </c>
       <c r="L62">
-        <v>4486</v>
+        <v>98</v>
       </c>
       <c r="M62">
-        <v>2002</v>
+        <v>54</v>
       </c>
       <c r="N62">
-        <v>2245</v>
+        <v>60</v>
       </c>
       <c r="O62">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="P62">
-        <v>1832</v>
+        <v>52</v>
       </c>
       <c r="Q62">
-        <v>1803</v>
+        <v>36</v>
       </c>
       <c r="R62">
-        <v>408</v>
+        <v>12</v>
       </c>
       <c r="S62">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>998</v>
+        <v>21</v>
       </c>
       <c r="U62">
-        <v>1359</v>
+        <v>52</v>
       </c>
       <c r="V62">
-        <v>11621</v>
+        <v>252</v>
       </c>
       <c r="W62">
-        <v>0.448</v>
+        <v>0.41</v>
       </c>
       <c r="X62">
-        <v>0.416</v>
+        <v>0.388</v>
       </c>
       <c r="Y62">
-        <v>0.892</v>
+        <v>0.9</v>
       </c>
       <c r="Z62">
-        <v>25.9</v>
+        <v>14.8</v>
       </c>
       <c r="AA62">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AB62">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="AC62">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="AD62" t="s">
         <v>168</v>
@@ -6563,76 +6539,73 @@
         <v>22</v>
       </c>
       <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
         <v>3</v>
       </c>
-      <c r="G63">
-        <v>45</v>
-      </c>
-      <c r="H63">
-        <v>245</v>
-      </c>
-      <c r="I63">
-        <v>33</v>
-      </c>
       <c r="J63">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="K63">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>8</v>
       </c>
-      <c r="O63">
-        <v>3</v>
-      </c>
-      <c r="P63">
-        <v>25</v>
-      </c>
-      <c r="Q63">
-        <v>5</v>
-      </c>
-      <c r="R63">
-        <v>4</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>10</v>
-      </c>
-      <c r="U63">
-        <v>21</v>
-      </c>
-      <c r="V63">
-        <v>86</v>
-      </c>
       <c r="W63">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X63">
-        <v>0.385</v>
-      </c>
-      <c r="Y63">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="Z63">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="AA63">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AB63">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AC63">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="s">
         <v>168</v>
@@ -6655,76 +6628,76 @@
         <v>20</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>353</v>
+        <v>67</v>
       </c>
       <c r="H64">
-        <v>5281</v>
+        <v>862</v>
       </c>
       <c r="I64">
-        <v>676</v>
+        <v>101</v>
       </c>
       <c r="J64">
-        <v>1651</v>
+        <v>239</v>
       </c>
       <c r="K64">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="L64">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="M64">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="N64">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="O64">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="P64">
-        <v>525</v>
+        <v>91</v>
       </c>
       <c r="Q64">
-        <v>1183</v>
+        <v>218</v>
       </c>
       <c r="R64">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="S64">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="U64">
-        <v>441</v>
+        <v>72</v>
       </c>
       <c r="V64">
-        <v>1747</v>
+        <v>247</v>
       </c>
       <c r="W64">
-        <v>0.409</v>
+        <v>0.423</v>
       </c>
       <c r="X64">
-        <v>0.337</v>
+        <v>0.282</v>
       </c>
       <c r="Y64">
-        <v>0.739</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z64">
-        <v>15</v>
+        <v>12.9</v>
       </c>
       <c r="AA64">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="AB64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC64">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD64" t="s">
         <v>168</v>
@@ -6747,76 +6720,76 @@
         <v>20</v>
       </c>
       <c r="F65">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>873</v>
+        <v>78</v>
       </c>
       <c r="H65">
-        <v>27103</v>
+        <v>1831</v>
       </c>
       <c r="I65">
-        <v>3723</v>
+        <v>188</v>
       </c>
       <c r="J65">
-        <v>8125</v>
+        <v>450</v>
       </c>
       <c r="K65">
-        <v>382</v>
+        <v>6</v>
       </c>
       <c r="L65">
-        <v>1207</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>1081</v>
+        <v>119</v>
       </c>
       <c r="N65">
-        <v>1783</v>
+        <v>184</v>
       </c>
       <c r="O65">
-        <v>877</v>
+        <v>74</v>
       </c>
       <c r="P65">
-        <v>4131</v>
+        <v>292</v>
       </c>
       <c r="Q65">
-        <v>7215</v>
+        <v>297</v>
       </c>
       <c r="R65">
-        <v>1451</v>
+        <v>128</v>
       </c>
       <c r="S65">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="T65">
-        <v>2439</v>
+        <v>137</v>
       </c>
       <c r="U65">
-        <v>1888</v>
+        <v>181</v>
       </c>
       <c r="V65">
-        <v>8909</v>
+        <v>501</v>
       </c>
       <c r="W65">
-        <v>0.458</v>
+        <v>0.418</v>
       </c>
       <c r="X65">
-        <v>0.316</v>
+        <v>0.207</v>
       </c>
       <c r="Y65">
-        <v>0.606</v>
+        <v>0.647</v>
       </c>
       <c r="Z65">
-        <v>31</v>
+        <v>23.5</v>
       </c>
       <c r="AA65">
-        <v>10.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB65">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="AC65">
-        <v>8.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="AD65" t="s">
         <v>168</v>
@@ -6839,76 +6812,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>326</v>
+        <v>57</v>
       </c>
       <c r="H66">
-        <v>11561</v>
+        <v>2015</v>
       </c>
       <c r="I66">
-        <v>2224</v>
+        <v>349</v>
       </c>
       <c r="J66">
-        <v>4849</v>
+        <v>765</v>
       </c>
       <c r="K66">
-        <v>322</v>
+        <v>55</v>
       </c>
       <c r="L66">
-        <v>925</v>
+        <v>146</v>
       </c>
       <c r="M66">
-        <v>1366</v>
+        <v>202</v>
       </c>
       <c r="N66">
-        <v>1707</v>
+        <v>241</v>
       </c>
       <c r="O66">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="P66">
-        <v>1388</v>
+        <v>250</v>
       </c>
       <c r="Q66">
-        <v>1517</v>
+        <v>230</v>
       </c>
       <c r="R66">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="S66">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="T66">
-        <v>595</v>
+        <v>116</v>
       </c>
       <c r="U66">
-        <v>630</v>
+        <v>139</v>
       </c>
       <c r="V66">
-        <v>6136</v>
+        <v>955</v>
       </c>
       <c r="W66">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="X66">
-        <v>0.348</v>
+        <v>0.377</v>
       </c>
       <c r="Y66">
-        <v>0.8</v>
+        <v>0.838</v>
       </c>
       <c r="Z66">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="AA66">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="AB66">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AC66">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AD66" t="s">
         <v>168</v>
@@ -6931,76 +6904,76 @@
         <v>22</v>
       </c>
       <c r="F67">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>869</v>
+        <v>71</v>
       </c>
       <c r="H67">
-        <v>19062</v>
+        <v>868</v>
       </c>
       <c r="I67">
-        <v>1916</v>
+        <v>109</v>
       </c>
       <c r="J67">
-        <v>4265</v>
+        <v>256</v>
       </c>
       <c r="K67">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>1469</v>
+        <v>42</v>
       </c>
       <c r="M67">
-        <v>649</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>887</v>
+        <v>45</v>
       </c>
       <c r="O67">
-        <v>626</v>
+        <v>35</v>
       </c>
       <c r="P67">
-        <v>3252</v>
+        <v>153</v>
       </c>
       <c r="Q67">
-        <v>1196</v>
+        <v>60</v>
       </c>
       <c r="R67">
-        <v>935</v>
+        <v>33</v>
       </c>
       <c r="S67">
-        <v>366</v>
+        <v>11</v>
       </c>
       <c r="T67">
-        <v>755</v>
+        <v>60</v>
       </c>
       <c r="U67">
-        <v>1418</v>
+        <v>100</v>
       </c>
       <c r="V67">
-        <v>4994</v>
+        <v>256</v>
       </c>
       <c r="W67">
-        <v>0.449</v>
+        <v>0.426</v>
       </c>
       <c r="X67">
-        <v>0.349</v>
+        <v>0.357</v>
       </c>
       <c r="Y67">
-        <v>0.732</v>
+        <v>0.511</v>
       </c>
       <c r="Z67">
-        <v>21.9</v>
+        <v>12.2</v>
       </c>
       <c r="AA67">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB67">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="AC67">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD67" t="s">
         <v>168</v>
@@ -7023,67 +6996,67 @@
         <v>20</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>28</v>
+      </c>
+      <c r="H68">
+        <v>169</v>
+      </c>
+      <c r="I68">
+        <v>18</v>
+      </c>
+      <c r="J68">
+        <v>49</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>17</v>
+      </c>
+      <c r="N68">
+        <v>29</v>
+      </c>
+      <c r="O68">
+        <v>16</v>
+      </c>
+      <c r="P68">
+        <v>45</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <v>3</v>
       </c>
-      <c r="G68">
-        <v>47</v>
-      </c>
-      <c r="H68">
-        <v>260</v>
-      </c>
-      <c r="I68">
-        <v>35</v>
-      </c>
-      <c r="J68">
-        <v>82</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>11</v>
+      </c>
+      <c r="U68">
         <v>33</v>
       </c>
-      <c r="N68">
-        <v>56</v>
-      </c>
-      <c r="O68">
-        <v>28</v>
-      </c>
-      <c r="P68">
-        <v>75</v>
-      </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-      <c r="R68">
-        <v>4</v>
-      </c>
-      <c r="S68">
-        <v>22</v>
-      </c>
-      <c r="T68">
-        <v>15</v>
-      </c>
-      <c r="U68">
-        <v>44</v>
-      </c>
       <c r="V68">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="W68">
-        <v>0.427</v>
+        <v>0.367</v>
       </c>
       <c r="Y68">
-        <v>0.589</v>
+        <v>0.586</v>
       </c>
       <c r="Z68">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA68">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AB68">
         <v>1.6</v>
@@ -7112,73 +7085,73 @@
         <v>21</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
+        <v>43</v>
+      </c>
+      <c r="H69">
+        <v>534</v>
+      </c>
+      <c r="I69">
+        <v>55</v>
+      </c>
+      <c r="J69">
+        <v>132</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>16</v>
+      </c>
+      <c r="N69">
+        <v>33</v>
+      </c>
+      <c r="O69">
+        <v>44</v>
+      </c>
+      <c r="P69">
+        <v>107</v>
+      </c>
+      <c r="Q69">
+        <v>12</v>
+      </c>
+      <c r="R69">
+        <v>8</v>
+      </c>
+      <c r="S69">
+        <v>23</v>
+      </c>
+      <c r="T69">
+        <v>22</v>
+      </c>
+      <c r="U69">
         <v>75</v>
       </c>
-      <c r="H69">
-        <v>705</v>
-      </c>
-      <c r="I69">
-        <v>70</v>
-      </c>
-      <c r="J69">
-        <v>171</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>23</v>
-      </c>
-      <c r="N69">
-        <v>59</v>
-      </c>
-      <c r="O69">
-        <v>55</v>
-      </c>
-      <c r="P69">
-        <v>141</v>
-      </c>
-      <c r="Q69">
-        <v>14</v>
-      </c>
-      <c r="R69">
-        <v>11</v>
-      </c>
-      <c r="S69">
-        <v>32</v>
-      </c>
-      <c r="T69">
-        <v>30</v>
-      </c>
-      <c r="U69">
-        <v>91</v>
-      </c>
       <c r="V69">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="W69">
-        <v>0.409</v>
+        <v>0.417</v>
       </c>
       <c r="Y69">
-        <v>0.39</v>
+        <v>0.485</v>
       </c>
       <c r="Z69">
-        <v>9.4</v>
+        <v>12.4</v>
       </c>
       <c r="AA69">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="AB69">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AC69">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD69" t="s">
         <v>168</v>
@@ -7293,76 +7266,76 @@
         <v>23</v>
       </c>
       <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>82</v>
+      </c>
+      <c r="H71">
+        <v>1537</v>
+      </c>
+      <c r="I71">
+        <v>246</v>
+      </c>
+      <c r="J71">
+        <v>463</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
         <v>6</v>
       </c>
-      <c r="G71">
-        <v>403</v>
-      </c>
-      <c r="H71">
-        <v>6826</v>
-      </c>
-      <c r="I71">
-        <v>1221</v>
-      </c>
-      <c r="J71">
-        <v>2207</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>27</v>
-      </c>
       <c r="M71">
-        <v>637</v>
+        <v>116</v>
       </c>
       <c r="N71">
-        <v>963</v>
+        <v>186</v>
       </c>
       <c r="O71">
-        <v>543</v>
+        <v>149</v>
       </c>
       <c r="P71">
-        <v>1567</v>
+        <v>416</v>
       </c>
       <c r="Q71">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="R71">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="S71">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="T71">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="U71">
-        <v>957</v>
+        <v>223</v>
       </c>
       <c r="V71">
-        <v>3080</v>
+        <v>608</v>
       </c>
       <c r="W71">
-        <v>0.553</v>
+        <v>0.531</v>
       </c>
       <c r="X71">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>0.661</v>
+        <v>0.624</v>
       </c>
       <c r="Z71">
-        <v>16.9</v>
+        <v>18.7</v>
       </c>
       <c r="AA71">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AB71">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD71" t="s">
         <v>168</v>
@@ -7566,76 +7539,76 @@
         <v>20</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>402</v>
+        <v>72</v>
       </c>
       <c r="H74">
-        <v>7932</v>
+        <v>966</v>
       </c>
       <c r="I74">
-        <v>1147</v>
+        <v>134</v>
       </c>
       <c r="J74">
-        <v>2620</v>
+        <v>282</v>
       </c>
       <c r="K74">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="M74">
-        <v>791</v>
+        <v>106</v>
       </c>
       <c r="N74">
-        <v>1080</v>
+        <v>175</v>
       </c>
       <c r="O74">
-        <v>550</v>
+        <v>89</v>
       </c>
       <c r="P74">
-        <v>1938</v>
+        <v>269</v>
       </c>
       <c r="Q74">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="R74">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="S74">
-        <v>525</v>
+        <v>76</v>
       </c>
       <c r="T74">
-        <v>527</v>
+        <v>94</v>
       </c>
       <c r="U74">
-        <v>989</v>
+        <v>162</v>
       </c>
       <c r="V74">
-        <v>3093</v>
+        <v>374</v>
       </c>
       <c r="W74">
-        <v>0.438</v>
+        <v>0.475</v>
       </c>
       <c r="X74">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>0.732</v>
+        <v>0.606</v>
       </c>
       <c r="Z74">
-        <v>19.7</v>
+        <v>13.4</v>
       </c>
       <c r="AA74">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="AB74">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC74">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD74" t="s">
         <v>168</v>
@@ -7658,76 +7631,73 @@
         <v>21</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>647</v>
+        <v>17</v>
       </c>
       <c r="H75">
-        <v>18967</v>
+        <v>83</v>
       </c>
       <c r="I75">
-        <v>1728</v>
+        <v>11</v>
       </c>
       <c r="J75">
-        <v>4082</v>
+        <v>22</v>
       </c>
       <c r="K75">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>1872</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>632</v>
+        <v>8</v>
       </c>
       <c r="N75">
-        <v>844</v>
+        <v>14</v>
       </c>
       <c r="O75">
-        <v>1016</v>
+        <v>11</v>
       </c>
       <c r="P75">
-        <v>3768</v>
+        <v>23</v>
       </c>
       <c r="Q75">
-        <v>928</v>
+        <v>3</v>
       </c>
       <c r="R75">
-        <v>784</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>652</v>
+        <v>6</v>
       </c>
       <c r="U75">
-        <v>1609</v>
+        <v>12</v>
       </c>
       <c r="V75">
-        <v>4767</v>
+        <v>30</v>
       </c>
       <c r="W75">
-        <v>0.423</v>
-      </c>
-      <c r="X75">
-        <v>0.363</v>
+        <v>0.5</v>
       </c>
       <c r="Y75">
-        <v>0.749</v>
+        <v>0.571</v>
       </c>
       <c r="Z75">
-        <v>29.3</v>
+        <v>4.9</v>
       </c>
       <c r="AA75">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB75">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="AC75">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD75" t="s">
         <v>168</v>
@@ -7750,76 +7720,76 @@
         <v>22</v>
       </c>
       <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>13</v>
+      </c>
+      <c r="H76">
+        <v>103</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>15</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76">
         <v>2</v>
       </c>
-      <c r="G76">
-        <v>26</v>
-      </c>
-      <c r="H76">
-        <v>172</v>
-      </c>
-      <c r="I76">
-        <v>16</v>
-      </c>
-      <c r="J76">
-        <v>35</v>
-      </c>
-      <c r="K76">
-        <v>8</v>
-      </c>
-      <c r="L76">
-        <v>19</v>
-      </c>
-      <c r="M76">
+      <c r="P76">
+        <v>11</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>6</v>
+      </c>
+      <c r="U76">
         <v>10</v>
       </c>
-      <c r="N76">
-        <v>18</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>19</v>
-      </c>
-      <c r="Q76">
-        <v>7</v>
-      </c>
-      <c r="R76">
-        <v>3</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>9</v>
-      </c>
-      <c r="U76">
-        <v>14</v>
-      </c>
       <c r="V76">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="W76">
-        <v>0.457</v>
+        <v>0.467</v>
       </c>
       <c r="X76">
-        <v>0.421</v>
+        <v>0.429</v>
       </c>
       <c r="Y76">
-        <v>0.556</v>
+        <v>0.714</v>
       </c>
       <c r="Z76">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="AA76">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB76">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD76" t="s">
         <v>168</v>
@@ -7842,76 +7812,76 @@
         <v>24</v>
       </c>
       <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <v>137</v>
+      </c>
+      <c r="I77">
+        <v>18</v>
+      </c>
+      <c r="J77">
+        <v>41</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>12</v>
+      </c>
+      <c r="N77">
+        <v>15</v>
+      </c>
+      <c r="O77">
         <v>3</v>
       </c>
-      <c r="G77">
-        <v>67</v>
-      </c>
-      <c r="H77">
-        <v>583</v>
-      </c>
-      <c r="I77">
-        <v>71</v>
-      </c>
-      <c r="J77">
-        <v>162</v>
-      </c>
-      <c r="K77">
-        <v>17</v>
-      </c>
-      <c r="L77">
+      <c r="P77">
+        <v>20</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>5</v>
+      </c>
+      <c r="U77">
+        <v>7</v>
+      </c>
+      <c r="V77">
         <v>50</v>
       </c>
-      <c r="M77">
-        <v>23</v>
-      </c>
-      <c r="N77">
-        <v>34</v>
-      </c>
-      <c r="O77">
-        <v>8</v>
-      </c>
-      <c r="P77">
-        <v>68</v>
-      </c>
-      <c r="Q77">
-        <v>35</v>
-      </c>
-      <c r="R77">
-        <v>17</v>
-      </c>
-      <c r="S77">
-        <v>6</v>
-      </c>
-      <c r="T77">
-        <v>25</v>
-      </c>
-      <c r="U77">
-        <v>53</v>
-      </c>
-      <c r="V77">
-        <v>182</v>
-      </c>
       <c r="W77">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="X77">
-        <v>0.34</v>
+        <v>0.286</v>
       </c>
       <c r="Y77">
-        <v>0.676</v>
+        <v>0.8</v>
       </c>
       <c r="Z77">
-        <v>8.699999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="AA77">
-        <v>2.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="AC77">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD77" t="s">
         <v>168</v>
@@ -7934,19 +7904,19 @@
         <v>22</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H78">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="I78">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J78">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7955,55 +7925,55 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N78">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="O78">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P78">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S78">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T78">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="U78">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="V78">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="W78">
-        <v>0.573</v>
+        <v>0.614</v>
       </c>
       <c r="X78">
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>0.348</v>
+        <v>0.365</v>
       </c>
       <c r="Z78">
-        <v>9.300000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AA78">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AB78">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="AC78">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD78" t="s">
         <v>168</v>
@@ -8026,76 +7996,76 @@
         <v>21</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="H79">
-        <v>3095</v>
+        <v>1315</v>
       </c>
       <c r="I79">
-        <v>427</v>
+        <v>208</v>
       </c>
       <c r="J79">
-        <v>1107</v>
+        <v>526</v>
       </c>
       <c r="K79">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="L79">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="M79">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="N79">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="O79">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="P79">
-        <v>361</v>
+        <v>163</v>
       </c>
       <c r="Q79">
-        <v>574</v>
+        <v>260</v>
       </c>
       <c r="R79">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="S79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="U79">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="V79">
-        <v>1128</v>
+        <v>534</v>
       </c>
       <c r="W79">
-        <v>0.386</v>
+        <v>0.395</v>
       </c>
       <c r="X79">
-        <v>0.321</v>
+        <v>0.282</v>
       </c>
       <c r="Y79">
-        <v>0.767</v>
+        <v>0.847</v>
       </c>
       <c r="Z79">
-        <v>15.2</v>
+        <v>16.6</v>
       </c>
       <c r="AA79">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB79">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AC79">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AD79" t="s">
         <v>168</v>
@@ -8118,76 +8088,76 @@
         <v>20</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>5368</v>
+        <v>556</v>
       </c>
       <c r="I80">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="J80">
-        <v>1612</v>
+        <v>160</v>
       </c>
       <c r="K80">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="L80">
-        <v>812</v>
+        <v>52</v>
       </c>
       <c r="M80">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="N80">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="O80">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="P80">
-        <v>945</v>
+        <v>83</v>
       </c>
       <c r="Q80">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="R80">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="S80">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="T80">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="U80">
-        <v>656</v>
+        <v>69</v>
       </c>
       <c r="V80">
-        <v>1769</v>
+        <v>180</v>
       </c>
       <c r="W80">
-        <v>0.403</v>
+        <v>0.469</v>
       </c>
       <c r="X80">
-        <v>0.339</v>
+        <v>0.365</v>
       </c>
       <c r="Y80">
-        <v>0.755</v>
+        <v>0.55</v>
       </c>
       <c r="Z80">
-        <v>17.1</v>
+        <v>12.1</v>
       </c>
       <c r="AA80">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB80">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AC80">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD80" t="s">
         <v>168</v>
@@ -8210,73 +8180,73 @@
         <v>23</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="H81">
-        <v>5586</v>
+        <v>1514</v>
       </c>
       <c r="I81">
-        <v>590</v>
+        <v>166</v>
       </c>
       <c r="J81">
-        <v>1276</v>
+        <v>365</v>
       </c>
       <c r="K81">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>436</v>
+        <v>110</v>
       </c>
       <c r="N81">
-        <v>589</v>
+        <v>144</v>
       </c>
       <c r="O81">
-        <v>529</v>
+        <v>131</v>
       </c>
       <c r="P81">
-        <v>1562</v>
+        <v>435</v>
       </c>
       <c r="Q81">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="R81">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="S81">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="T81">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="U81">
-        <v>733</v>
+        <v>199</v>
       </c>
       <c r="V81">
-        <v>1618</v>
+        <v>444</v>
       </c>
       <c r="W81">
-        <v>0.462</v>
+        <v>0.455</v>
       </c>
       <c r="X81">
-        <v>0.222</v>
+        <v>0.5</v>
       </c>
       <c r="Y81">
-        <v>0.74</v>
+        <v>0.764</v>
       </c>
       <c r="Z81">
-        <v>15.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA81">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB81">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AC81">
         <v>0.5</v>
